--- a/medicine/Bioéthique/Commission_fédérale_d'éthique_pour_la_biotechnologie_dans_le_domaine_non_humain/Commission_fédérale_d'éthique_pour_la_biotechnologie_dans_le_domaine_non_humain.xlsx
+++ b/medicine/Bioéthique/Commission_fédérale_d'éthique_pour_la_biotechnologie_dans_le_domaine_non_humain/Commission_fédérale_d'éthique_pour_la_biotechnologie_dans_le_domaine_non_humain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Commission_f%C3%A9d%C3%A9rale_d%27%C3%A9thique_pour_la_biotechnologie_dans_le_domaine_non_humain</t>
+          <t>Commission_fédérale_d'éthique_pour_la_biotechnologie_dans_le_domaine_non_humain</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Suisse, la Commission fédérale d'éthique pour la biotechnologie dans le domaine non humain (CENH) est, selon l'art. 23 de la loi fédérale sur l'application du génie génétique au domaine non humain[1], une commission consultative extraparlementaire. Elle conseille le Conseil fédéral ainsi que les autorités de la Confédération et des cantons chargées de légiférer et d'exécuter des actes en matière de biotechnologie dans le domaine non humain. Cette commission a été instituée par une décision du Conseil fédéral en date du 27 avril 1998. Du point de vue administratif, elle est rattachée à l'Office fédéral de l'environnement (OFEV) au sein du Département fédéral de l'environnement, des transports, de l'énergie et de la communication (DETEC).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Suisse, la Commission fédérale d'éthique pour la biotechnologie dans le domaine non humain (CENH) est, selon l'art. 23 de la loi fédérale sur l'application du génie génétique au domaine non humain, une commission consultative extraparlementaire. Elle conseille le Conseil fédéral ainsi que les autorités de la Confédération et des cantons chargées de légiférer et d'exécuter des actes en matière de biotechnologie dans le domaine non humain. Cette commission a été instituée par une décision du Conseil fédéral en date du 27 avril 1998. Du point de vue administratif, elle est rattachée à l'Office fédéral de l'environnement (OFEV) au sein du Département fédéral de l'environnement, des transports, de l'énergie et de la communication (DETEC).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Commission_f%C3%A9d%C3%A9rale_d%27%C3%A9thique_pour_la_biotechnologie_dans_le_domaine_non_humain</t>
+          <t>Commission_fédérale_d'éthique_pour_la_biotechnologie_dans_le_domaine_non_humain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Mandat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La commission suit et évalue sous l'angle de l'éthique l'évolution et les applications de la biotechnologie, et se prononce sur les aspects éthiques de leurs implications scientifiques et sociales. Elle conseille
 le Conseil fédéral lorsqu'il élabore des prescriptions
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Commission_f%C3%A9d%C3%A9rale_d%27%C3%A9thique_pour_la_biotechnologie_dans_le_domaine_non_humain</t>
+          <t>Commission_fédérale_d'éthique_pour_la_biotechnologie_dans_le_domaine_non_humain</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Membres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La commission se compose de 12 personnes n'appartenant pas à l'administration publique, spécialistes de l'éthique ou représentants d'autres disciplines possédant des connaissances scientifiques ou pratiques dans le domaine de l'éthique. Plusieurs courants doivent y être représentés.
 Les membres de la commission sont nommés par le Conseil fédéral pour une législature de 4 ans.
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Commission_f%C3%A9d%C3%A9rale_d%27%C3%A9thique_pour_la_biotechnologie_dans_le_domaine_non_humain</t>
+          <t>Commission_fédérale_d'éthique_pour_la_biotechnologie_dans_le_domaine_non_humain</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,9 @@
           <t>Secrétariat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La commission est épaulée par un secrétariat scientifique. Celui-ci est subordonné, sur le plan scientifique, à la présidence de la commission et, sur le plan administratif, à l’Office fédéral de l’environnement (OFEV).
 </t>
@@ -602,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Commission_f%C3%A9d%C3%A9rale_d%27%C3%A9thique_pour_la_biotechnologie_dans_le_domaine_non_humain</t>
+          <t>Commission_fédérale_d'éthique_pour_la_biotechnologie_dans_le_domaine_non_humain</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -622,8 +640,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Principales prises de position de la commission
-La dignité de l'animal, Prise de position commune de la Commission fédérale d'éthique pour le génie génétique dans le domaine non humain (CENH et de la Commission fédérale pour les expériences sur animaux (CFEA) en vue de concrétiser la dignité de la créature chez l'animal, 2001.
+          <t>Principales prises de position de la commission</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La dignité de l'animal, Prise de position commune de la Commission fédérale d'éthique pour le génie génétique dans le domaine non humain (CENH et de la Commission fédérale pour les expériences sur animaux (CFEA) en vue de concrétiser la dignité de la créature chez l'animal, 2001.
 Brevetabilité des animaux et des plantes - Contribution à la discussion, 2001.
 Le génie génétique dans l'alimentation - Considérations éthiques sur la mise en circulation de denrées alimentaires et d'aliments pour animaux, 2003.
 Génie génétique et pays en développement - Une contribution éthique au débat, 2004.
@@ -633,9 +656,43 @@
 Dissémination de plantes génétiquement modifiées – critères éthiques, 2012.
 Utilisation éthique des poissons, 2014.
 Liberté de la recherche et sécurité biologique - Réflexions éthiques à partir de l'exemple de la recherche à double usage préoccupante (dual use research of concern), 2015.
-Nouvelles techniques de sélection végétale – réflexions éthiques, 2016.
-Collection « Contributions à l’éthique et à la biotechnologie »
-Dans la collection « Contributions à l'éthique et à la biotechnologie » (Beiträge zur Ethik und Biotechnologie) paraissent des rapports d'experts rédigés à la demande de la Commission fédérale d'éthique pour la biotechnologie dans le domaine non humain. Ces rapports d'experts jettent les bases de la discussion des aspects éthiques de la biotechnologie et servent de documents de travail à la CENH.
+Nouvelles techniques de sélection végétale – réflexions éthiques, 2016.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Commission_fédérale_d'éthique_pour_la_biotechnologie_dans_le_domaine_non_humain</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Commission_f%C3%A9d%C3%A9rale_d%27%C3%A9thique_pour_la_biotechnologie_dans_le_domaine_non_humain</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Collection « Contributions à l’éthique et à la biotechnologie »</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Dans la collection « Contributions à l'éthique et à la biotechnologie » (Beiträge zur Ethik und Biotechnologie) paraissent des rapports d'experts rédigés à la demande de la Commission fédérale d'éthique pour la biotechnologie dans le domaine non humain. Ces rapports d'experts jettent les bases de la discussion des aspects éthiques de la biotechnologie et servent de documents de travail à la CENH.
 Volume 1 : Andreas Bachmann, Nano(bio)technologie - Eine ethische Auslegeordnung (Nanobiotechnologie: un état des lieux éthique), 2006.
 Volume 2 : Jürg Stöcklin, Die Pflanze - Moderne Konzepte der Biologie (La plante. Concepts actuels de la biologie), 2007.
 Volume 3 : Andreas Brenner, Leben - Eine philosophische Untersuchung (La vie. Un examen philosophique), 2007.
@@ -650,31 +707,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Commission_f%C3%A9d%C3%A9rale_d%27%C3%A9thique_pour_la_biotechnologie_dans_le_domaine_non_humain</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Commission_fédérale_d'éthique_pour_la_biotechnologie_dans_le_domaine_non_humain</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Bioéthique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Commission_f%C3%A9d%C3%A9rale_d%27%C3%A9thique_pour_la_biotechnologie_dans_le_domaine_non_humain</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Divers</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">En octobre 2008, la CEHN s'est vu décerner le prix Ig Nobel de la paix pour son rapport « La dignité de la créature dans le règne végétal - La question du respect des plantes au nom de leur valeur morale ».
 </t>
